--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655191.555693946</v>
+        <v>653303.9741775439</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>79.97861261893982</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.412550754612523</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>74.09260911231073</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>223.82438355203</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>285.0120783583006</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>294.5977182215378</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>60.92600812502312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>70.03418953493001</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>114.3875550887377</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>286.2005890034042</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>164.1944522398489</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>181.2636343324144</v>
+        <v>166.4704758913031</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>25.51880881549629</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185817</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>59.77945773664924</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>194.8026695426854</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>131.5652935889385</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>105.6571329437493</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>195.8155841663238</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>33.35146980185916</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>105.6571329437497</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.73363428563858</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>22.14609241444887</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523563</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373695</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1715.075343644822</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>128.7840011257288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931987</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931987</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931987</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>286.5323736931987</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1241.158393318536</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2004.763483555427</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2004.763483555427</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1631.297725294347</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1241.158393318536</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.4844041688727</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>115.4844041688727</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>115.4844041688727</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>115.4844041688727</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124028</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124028</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.4844041688727</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2526.577416610597</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2307.942749582659</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2054.180964220751</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.260242234759</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>562.2760021459809</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>562.2760021459809</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>562.2760021459809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>562.2760021459809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>562.2760021459809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.2760021459809</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,28 +5024,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.2863307027307</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>509.2863307027307</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1026.693051637709</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="W13" t="n">
-        <v>737.275881600748</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>509.2863307027307</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>509.2863307027307</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5261,34 +5261,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.5869961536293</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>441.5869961536293</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383435</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273991</v>
+        <v>420.3226148324567</v>
       </c>
       <c r="W16" t="n">
-        <v>844.0280401273991</v>
+        <v>130.9054447954961</v>
       </c>
       <c r="X16" t="n">
-        <v>844.0280401273991</v>
+        <v>130.9054447954961</v>
       </c>
       <c r="Y16" t="n">
-        <v>623.235460983869</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,31 +5498,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>385.5899330013832</v>
       </c>
       <c r="X19" t="n">
-        <v>245.1301850426791</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.1301850426791</v>
+        <v>157.6003821033659</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,13 +5750,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5774,22 +5774,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,25 +5817,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
         <v>1302.911127126629</v>
@@ -5844,13 +5844,13 @@
         <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2302.237516093322</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P21" t="n">
-        <v>2507.259996875532</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.1765965867984</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352016</v>
+        <v>568.2827263274861</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150555</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170381</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>726.8250614170381</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1301.12275119798</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1077.337335987485</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>788.2086972010437</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="V25" t="n">
-        <v>533.5242089951569</v>
+        <v>420.3226148324577</v>
       </c>
       <c r="W25" t="n">
-        <v>244.1070389581963</v>
+        <v>130.9054447954971</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6309,22 +6309,22 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775513</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011508</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>568.2827263274861</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514068</v>
@@ -6488,10 +6488,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6546,22 +6546,22 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775513</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>525.2850453761804</v>
+        <v>439.5324299542206</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761804</v>
+        <v>326.3571123076845</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452154</v>
+        <v>232.0013381767196</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441931</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276535</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6628,7 +6628,7 @@
         <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818939</v>
+        <v>902.6804289818951</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652474</v>
+        <v>730.4517433652486</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503088</v>
+        <v>565.4200295030894</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6722,28 +6722,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6874,7 +6874,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6947,13 +6947,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207829</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,16 +7108,16 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7163,55 +7163,55 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,7 +7348,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7357,7 +7357,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>901.6749225845923</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,22 +7573,22 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7631,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>199.6230805871095</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>213.2603911806632</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>32.78140656352424</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.47535963978086</v>
+        <v>94.13752431970582</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>43.65987261462453</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978146</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>297.3877236703341</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,25 +10194,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978146</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>5.100663089359216</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>113.6026921294536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165113</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172073</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>124.3400780863221</v>
+        <v>285.1031356539329</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,19 +11382,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>70.87400899141358</v>
+        <v>85.66716743252493</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>123.0966642027161</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>185.2331835502366</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>120.052522445288</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>30.90698584635172</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>35.68152750968932</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.105225817279481</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>192.358185587178</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>146.4805103800783</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.89508926774167</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>69.08461360356316</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571483</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
         <v>351926.1537639381</v>
       </c>
       <c r="F2" t="n">
-        <v>351926.1537639382</v>
+        <v>351926.1537639379</v>
       </c>
       <c r="G2" t="n">
         <v>351926.1537639381</v>
       </c>
       <c r="H2" t="n">
-        <v>351926.1537639378</v>
+        <v>351926.1537639379</v>
       </c>
       <c r="I2" t="n">
         <v>351926.1537639379</v>
@@ -26338,22 +26338,22 @@
         <v>351926.1537639379</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.9236107427</v>
+        <v>366139.9236107424</v>
       </c>
       <c r="L2" t="n">
+        <v>369468.7964389282</v>
+      </c>
+      <c r="M2" t="n">
+        <v>369468.7964389278</v>
+      </c>
+      <c r="N2" t="n">
+        <v>369468.7964389276</v>
+      </c>
+      <c r="O2" t="n">
         <v>369468.7964389281</v>
       </c>
-      <c r="M2" t="n">
-        <v>369468.7964389279</v>
-      </c>
-      <c r="N2" t="n">
-        <v>369468.796438928</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>369468.7964389278</v>
-      </c>
-      <c r="P2" t="n">
-        <v>369468.7964389282</v>
       </c>
     </row>
     <row r="3">
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.66962143912</v>
       </c>
-      <c r="G4" t="n">
-        <v>15045.66962143911</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143909</v>
-      </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563562</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275951</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275955</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275956</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,16 +26497,16 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-460133.1190902492</v>
       </c>
       <c r="C6" t="n">
-        <v>129834.7601242952</v>
+        <v>129834.7601242954</v>
       </c>
       <c r="D6" t="n">
-        <v>129834.7601242951</v>
+        <v>129834.7601242953</v>
       </c>
       <c r="E6" t="n">
-        <v>-280266.8782831138</v>
+        <v>-280364.337409086</v>
       </c>
       <c r="F6" t="n">
-        <v>244893.1581937825</v>
+        <v>244795.69906781</v>
       </c>
       <c r="G6" t="n">
-        <v>244893.1581937824</v>
+        <v>244795.6990678101</v>
       </c>
       <c r="H6" t="n">
-        <v>244893.1581937819</v>
+        <v>244795.69906781</v>
       </c>
       <c r="I6" t="n">
-        <v>244893.1581937822</v>
+        <v>244795.6990678099</v>
       </c>
       <c r="J6" t="n">
-        <v>68469.93900118922</v>
+        <v>68372.47987521703</v>
       </c>
       <c r="K6" t="n">
-        <v>192138.8176420386</v>
+        <v>192120.3239041039</v>
       </c>
       <c r="L6" t="n">
-        <v>223946.3269552763</v>
+        <v>223946.3269552764</v>
       </c>
       <c r="M6" t="n">
-        <v>99488.21852230576</v>
+        <v>99488.21852230582</v>
       </c>
       <c r="N6" t="n">
-        <v>234289.2337561431</v>
+        <v>234289.2337561427</v>
       </c>
       <c r="O6" t="n">
-        <v>234289.2337561428</v>
+        <v>234289.2337561432</v>
       </c>
       <c r="P6" t="n">
-        <v>190126.6284532978</v>
+        <v>190126.6284532971</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,43 +26738,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26817,7 +26817,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108358</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>326.8974331227716</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>383.825387901441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>60.8730126800275</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>28.31325977179802</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>121.8639673834109</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>33.15454024859713</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>84.49503989790813</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070477</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>60.02815772023379</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>83.53051167506487</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>60.84065321823539</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32719,13 +32719,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32740,7 +32740,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,10 +32856,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32868,10 +32868,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32880,7 +32880,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,13 +32892,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32956,13 +32956,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32977,7 +32977,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,10 +33093,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33105,10 +33105,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33117,7 +33117,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,13 +33129,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33193,13 +33193,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647497</v>
@@ -33214,7 +33214,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813463</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,10 +33330,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33342,10 +33342,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33354,7 +33354,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,13 +33366,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33430,13 +33430,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33451,7 +33451,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,10 +33567,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33579,10 +33579,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33591,7 +33591,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,13 +33603,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33667,13 +33667,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33688,7 +33688,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33743,7 +33743,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,10 +33804,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33816,10 +33816,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33828,7 +33828,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,13 +33840,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33904,13 +33904,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33925,7 +33925,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,10 +34041,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34053,10 +34053,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34065,7 +34065,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,13 +34077,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,37 +34132,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>406.7164955186342</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>363.8358297686024</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>120.7944393485983</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.4883924248551</v>
+        <v>182.1505571047799</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36367,19 +36367,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36604,19 +36604,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958059</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>579.7514259114423</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109073</v>
@@ -36841,19 +36841,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958059</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>212.194078020884</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -36999,16 +36999,16 @@
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37078,19 +37078,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>446.7972655274665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37315,19 +37315,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>756.5322523145243</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37552,19 +37552,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>434.7644551367885</v>
+        <v>595.5275127043992</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,19 +38102,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
